--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1010.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1010.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.210368293723964</v>
+        <v>1.291993498802185</v>
       </c>
       <c r="B1">
-        <v>3.071308221677128</v>
+        <v>1.668675899505615</v>
       </c>
       <c r="C1">
-        <v>4.131568010363725</v>
+        <v>2.399070978164673</v>
       </c>
       <c r="D1">
-        <v>2.124428486327789</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>0.9984003485183701</v>
+        <v>1.321151971817017</v>
       </c>
     </row>
   </sheetData>
